--- a/salones.xlsx
+++ b/salones.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esteb\OneDrive\Documentos\UNIVERSIDAD\POO\laboratorio_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esteb\Documents\UNIVERSITY\POO\laboratorio_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B51F66-30A5-4C06-A27D-DF39B1983732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72ED944A-07F3-4AE0-92AE-3803AB9442EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4104" yWindow="0" windowWidth="17280" windowHeight="9960" xr2:uid="{DAD11EE4-B658-4D06-89B6-01533AEC2442}"/>
+    <workbookView xWindow="0" yWindow="4335" windowWidth="18000" windowHeight="9270" xr2:uid="{DAD11EE4-B658-4D06-89B6-01533AEC2442}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -411,12 +411,12 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A8" sqref="A8:A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -433,7 +433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>110</v>
       </c>
@@ -450,7 +450,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>110</v>
       </c>
@@ -467,7 +467,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>110</v>
       </c>
@@ -484,7 +484,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>110</v>
       </c>
@@ -501,7 +501,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>110</v>
       </c>
@@ -518,7 +518,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>110</v>
       </c>
@@ -535,7 +535,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>110</v>
       </c>
@@ -552,7 +552,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>110</v>
       </c>
@@ -569,7 +569,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>110</v>
       </c>
@@ -586,7 +586,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>110</v>
       </c>
@@ -603,7 +603,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>110</v>
       </c>
@@ -620,7 +620,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>110</v>
       </c>
